--- a/biology/Médecine/Appareil_(anatomie)/Appareil_(anatomie).xlsx
+++ b/biology/Médecine/Appareil_(anatomie)/Appareil_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, un appareil est un ensemble d’organes dont le fonctionnement concourt à une tâche complexe commune.
 On distingue la notion d’appareil de celle de système : un appareil est composé d’organes bien délimités, alors que le système peut être composé de structures mal délimitées et diffuses dans tout l’organisme (comme les nerfs du système nerveux, qui sont indissociables des organes, ou les cellules mobiles du système immunitaire).
@@ -514,10 +526,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil de structure et de relation
-Appareils de métabolisme
-Appareils de contrôle
-Appareil de reproduction
+          <t>Appareil de structure et de relation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Appareil_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appareil_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des appareils et systèmes humains</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareils de métabolisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Appareil_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appareil_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des appareils et systèmes humains</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareils de contrôle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Appareil_(anatomie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appareil_(anatomie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des appareils et systèmes humains</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil de reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
